--- a/技能表.xlsx
+++ b/技能表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="361">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1111,6 +1111,10 @@
   </si>
   <si>
     <t>David</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2604,7 +2608,7 @@
   <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2627,6 +2631,9 @@
       <c r="A2" t="s">
         <v>226</v>
       </c>
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">

--- a/技能表.xlsx
+++ b/技能表.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caizixi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7695" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
     <sheet name="C和指针" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="500">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -88,12 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">        2.20    实用的函数   55</t>
-  </si>
-  <si>
-    <t>第3章  Python基础   59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        3.1     语句和语法   60</t>
   </si>
   <si>
     <t xml:space="preserve">        3.2     变量赋值    63</t>
@@ -1114,15 +1109,440 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
+    <t>1.1 编写一个简单的C++程序</t>
+  </si>
+  <si>
+    <t>1.2 初识输入输出</t>
+  </si>
+  <si>
+    <t>1.3 注释简介</t>
+  </si>
+  <si>
+    <t>1.4 控制流</t>
+  </si>
+  <si>
+    <t>1.5 类简介</t>
+  </si>
+  <si>
+    <t>1.6 书店程序</t>
+  </si>
+  <si>
+    <t>2.1 基本内置类型</t>
+  </si>
+  <si>
+    <t>2.2 变量</t>
+  </si>
+  <si>
+    <t>2.3 复合类型</t>
+  </si>
+  <si>
+    <t>2.4 const限定符</t>
+  </si>
+  <si>
+    <t>2.5 处理类型</t>
+  </si>
+  <si>
+    <t>2.6 自定义数据结构</t>
+  </si>
+  <si>
+    <t>第3章 字符串、向量和数组</t>
+  </si>
+  <si>
+    <t>3.1 命名空间的using声明</t>
+  </si>
+  <si>
+    <t>3.2 标准库类型string</t>
+  </si>
+  <si>
+    <t>3.3 标准库类型vector</t>
+  </si>
+  <si>
+    <t>3.4 迭代器介绍</t>
+  </si>
+  <si>
+    <t>3.5 数组</t>
+  </si>
+  <si>
+    <t>3.6 多维数组</t>
+  </si>
+  <si>
+    <t>4.1 基础</t>
+  </si>
+  <si>
+    <t>4.2 算术运算符</t>
+  </si>
+  <si>
+    <t>4.3 逻辑和关系运算符</t>
+  </si>
+  <si>
+    <t>4.4 赋值运算符</t>
+  </si>
+  <si>
+    <t>4.5 递增和递减运算符</t>
+  </si>
+  <si>
+    <t>4.6 成员访问运算符</t>
+  </si>
+  <si>
+    <t>4.7 条件运算符</t>
+  </si>
+  <si>
+    <t>4.8 位运算符</t>
+  </si>
+  <si>
+    <t>4.9 sizeof运算符</t>
+  </si>
+  <si>
+    <t>4.10 逗号运算符</t>
+  </si>
+  <si>
+    <t>4.11 类型转换</t>
+  </si>
+  <si>
+    <t>4.12 运算符优先级表</t>
+  </si>
+  <si>
+    <t>5.1 简单语句</t>
+  </si>
+  <si>
+    <t>5.2 语句作用域</t>
+  </si>
+  <si>
+    <t>5.3 条件语句</t>
+  </si>
+  <si>
+    <t>5.4 迭代语句</t>
+  </si>
+  <si>
+    <t>5.5 跳转语句</t>
+  </si>
+  <si>
+    <t>5.6 TRY语句块和异常处理</t>
+  </si>
+  <si>
+    <t>第6章 函数</t>
+  </si>
+  <si>
+    <t>6.1 函数基础</t>
+  </si>
+  <si>
+    <t>6.2 参数传递</t>
+  </si>
+  <si>
+    <t>6.3 返回类型和return语句</t>
+  </si>
+  <si>
+    <t>6.4 函数重载</t>
+  </si>
+  <si>
+    <t>6.5 特殊用途语言特性</t>
+  </si>
+  <si>
+    <t>6.6 函数匹配</t>
+  </si>
+  <si>
+    <t>6.7 函数指针</t>
+  </si>
+  <si>
+    <t>7.1 定义抽象数据类型</t>
+  </si>
+  <si>
+    <t>7.2 访问控制与封装</t>
+  </si>
+  <si>
+    <t>7.3 类的其他特性</t>
+  </si>
+  <si>
+    <t>7.4 类的作用域</t>
+  </si>
+  <si>
+    <t>7.5 构造函数再探</t>
+  </si>
+  <si>
+    <t>7.6 类的静态成员</t>
+  </si>
+  <si>
+    <t>8.1 IO类</t>
+  </si>
+  <si>
+    <t>8.2 文件输入输出</t>
+  </si>
+  <si>
+    <t>8.3 string流</t>
+  </si>
+  <si>
+    <t>第9章 顺序容器</t>
+  </si>
+  <si>
+    <t>9.1 顺序容器概述</t>
+  </si>
+  <si>
+    <t>9.2 容器库概览</t>
+  </si>
+  <si>
+    <t>9.3 顺序容器操作</t>
+  </si>
+  <si>
+    <t>9.4 vector对象是如何增长的</t>
+  </si>
+  <si>
+    <t>9.5 额外的string操作</t>
+  </si>
+  <si>
+    <t>9.6 容器适配器</t>
+  </si>
+  <si>
+    <t>10.1 概述</t>
+  </si>
+  <si>
+    <t>10.2 初识泛型算法</t>
+  </si>
+  <si>
+    <t>10.3 定制操作</t>
+  </si>
+  <si>
+    <t>10.4 再探迭代器</t>
+  </si>
+  <si>
+    <t>10.5 泛型算法结构</t>
+  </si>
+  <si>
+    <t>10.6 特定容器算法</t>
+  </si>
+  <si>
+    <t>11.1 使用关联容器</t>
+  </si>
+  <si>
+    <t>11.2 关联容器概述</t>
+  </si>
+  <si>
+    <t>11.3 关联容器操作</t>
+  </si>
+  <si>
+    <t>11.4 无序容器</t>
+  </si>
+  <si>
+    <t>12.1 动态内存与智能指针</t>
+  </si>
+  <si>
+    <t>12.2 动态数组</t>
+  </si>
+  <si>
+    <t>12.3 使用标准库：文本查询程序</t>
+  </si>
+  <si>
+    <t>第13章 拷贝控制</t>
+  </si>
+  <si>
+    <t>13.1 拷贝、赋值与销毁</t>
+  </si>
+  <si>
+    <t>13.2 拷贝控制和资源管理</t>
+  </si>
+  <si>
+    <t>13.3 交换操作</t>
+  </si>
+  <si>
+    <t>13.4 拷贝控制示例</t>
+  </si>
+  <si>
+    <t>13.5 动态内存管理类</t>
+  </si>
+  <si>
+    <t>13.6 对象移动</t>
+  </si>
+  <si>
+    <t>第14章 操作重载与类型转换</t>
+  </si>
+  <si>
+    <t>14.1 基本概念</t>
+  </si>
+  <si>
+    <t>14.2 输入和输出运算符</t>
+  </si>
+  <si>
+    <t>14.3 算术和关系运算符</t>
+  </si>
+  <si>
+    <t>14.4 赋值运算符</t>
+  </si>
+  <si>
+    <t>14.5 下标运算符</t>
+  </si>
+  <si>
+    <t>14.6 递增和递减运算符</t>
+  </si>
+  <si>
+    <t>14.7 成员访问运算符</t>
+  </si>
+  <si>
+    <t>14.8 函数调用运算符</t>
+  </si>
+  <si>
+    <t>14.9 重载、类型转换与运算符</t>
+  </si>
+  <si>
+    <t>第15章 面向对象程序设计</t>
+  </si>
+  <si>
+    <t>15.1 OOP：概述</t>
+  </si>
+  <si>
+    <t>15.2 定义基类和派生类</t>
+  </si>
+  <si>
+    <t>15.3 虚函数</t>
+  </si>
+  <si>
+    <t>15.4 抽象基类</t>
+  </si>
+  <si>
+    <t>15.5 访问控制与继承</t>
+  </si>
+  <si>
+    <t>15.6 继承中的类作用域</t>
+  </si>
+  <si>
+    <t>15.7 构造函数与拷贝控制</t>
+  </si>
+  <si>
+    <t>15.8 容器与继承</t>
+  </si>
+  <si>
+    <t>15.9 文本查询程序再探</t>
+  </si>
+  <si>
+    <t>第16章 模板与泛型编程</t>
+  </si>
+  <si>
+    <t>16.1 定义模板</t>
+  </si>
+  <si>
+    <t>16.2 模板实参推断</t>
+  </si>
+  <si>
+    <t>16.3 重载与模板</t>
+  </si>
+  <si>
+    <t>16.4 可变参数模板</t>
+  </si>
+  <si>
+    <t>16.5 模板特例化</t>
+  </si>
+  <si>
+    <t>17.1 tuple类型</t>
+  </si>
+  <si>
+    <t>17.2 BITSET类型</t>
+  </si>
+  <si>
+    <t>17.3 正则表达式</t>
+  </si>
+  <si>
+    <t>17.4 随机数</t>
+  </si>
+  <si>
+    <t>17.5 IO库再探</t>
+  </si>
+  <si>
+    <t>第18章 用于大型程序的工具</t>
+  </si>
+  <si>
+    <t>18.1 异常处理</t>
+  </si>
+  <si>
+    <t>18.2 命名空间</t>
+  </si>
+  <si>
+    <t>18.3 多重继承与虚继承</t>
+  </si>
+  <si>
+    <t>第19章 特殊工具与技术</t>
+  </si>
+  <si>
+    <t>19.1 控制内存分配</t>
+  </si>
+  <si>
+    <t>19.2 运行时类型识别</t>
+  </si>
+  <si>
+    <t>19.3 枚举类型</t>
+  </si>
+  <si>
+    <t>19.4 类成员指针</t>
+  </si>
+  <si>
+    <t>19.5 嵌套类</t>
+  </si>
+  <si>
+    <t>19.6 union：一种节省空间的类</t>
+  </si>
+  <si>
+    <t>19.7 局部类</t>
+  </si>
+  <si>
+    <t>19.8 固有的不可移植的特性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3.1     语句和语法   60</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3章  Python基础   59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1章 开始</t>
+  </si>
+  <si>
+    <t>第Ⅰ部分 C++基础</t>
+  </si>
+  <si>
+    <t>第2章 变量和基本类型</t>
+  </si>
+  <si>
+    <t>第4章 表达式</t>
+  </si>
+  <si>
+    <t>第5章 语句</t>
+  </si>
+  <si>
+    <t>第7章 类</t>
+  </si>
+  <si>
+    <t>第Ⅱ部 C++标准库</t>
+  </si>
+  <si>
+    <t>第8章 IO库</t>
+  </si>
+  <si>
+    <t>第10章 泛型算法</t>
+  </si>
+  <si>
+    <t>第11章 关联容器</t>
+  </si>
+  <si>
+    <t>第12章 动态内存</t>
+  </si>
+  <si>
+    <t>第Ⅲ部分 类设计者的工具</t>
+  </si>
+  <si>
+    <t>第Ⅳ部分 高级主题</t>
+  </si>
+  <si>
+    <t>第17章 标准库特殊设施</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1156,6 +1576,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1179,8 +1606,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1189,9 +1617,80 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1205,7 +1704,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1463,23 +1962,23 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="73.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1589,1012 +2088,1012 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2607,692 +3106,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3300,4 +3796,1160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>489</v>
+      </c>
+      <c r="B24">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B29">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>388</v>
+      </c>
+      <c r="B36">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>490</v>
+      </c>
+      <c r="B37">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B38">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>390</v>
+      </c>
+      <c r="B39">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>391</v>
+      </c>
+      <c r="B40">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B41">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>393</v>
+      </c>
+      <c r="B42">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B43">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>395</v>
+      </c>
+      <c r="B44">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>396</v>
+      </c>
+      <c r="B45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>398</v>
+      </c>
+      <c r="B47">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>399</v>
+      </c>
+      <c r="B48">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>400</v>
+      </c>
+      <c r="B49">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>402</v>
+      </c>
+      <c r="B51">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>491</v>
+      </c>
+      <c r="B52">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>405</v>
+      </c>
+      <c r="B55">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>406</v>
+      </c>
+      <c r="B56">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>407</v>
+      </c>
+      <c r="B57">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>408</v>
+      </c>
+      <c r="B58">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>492</v>
+      </c>
+      <c r="B59">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>493</v>
+      </c>
+      <c r="B60">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>409</v>
+      </c>
+      <c r="B61">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>410</v>
+      </c>
+      <c r="B62">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>411</v>
+      </c>
+      <c r="B63">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>413</v>
+      </c>
+      <c r="B65">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>414</v>
+      </c>
+      <c r="B66">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>416</v>
+      </c>
+      <c r="B68">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>417</v>
+      </c>
+      <c r="B69">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>418</v>
+      </c>
+      <c r="B70">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>494</v>
+      </c>
+      <c r="B71">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>419</v>
+      </c>
+      <c r="B72">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>420</v>
+      </c>
+      <c r="B73">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>421</v>
+      </c>
+      <c r="B74">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>422</v>
+      </c>
+      <c r="B75">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>423</v>
+      </c>
+      <c r="B76">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>424</v>
+      </c>
+      <c r="B77">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>495</v>
+      </c>
+      <c r="B78">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>425</v>
+      </c>
+      <c r="B79">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>426</v>
+      </c>
+      <c r="B80">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>427</v>
+      </c>
+      <c r="B81">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>428</v>
+      </c>
+      <c r="B82">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>496</v>
+      </c>
+      <c r="B83">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>429</v>
+      </c>
+      <c r="B84">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>430</v>
+      </c>
+      <c r="B85">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>431</v>
+      </c>
+      <c r="B86">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>497</v>
+      </c>
+      <c r="B87">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>432</v>
+      </c>
+      <c r="B88">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>433</v>
+      </c>
+      <c r="B89">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>434</v>
+      </c>
+      <c r="B90">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>435</v>
+      </c>
+      <c r="B91">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>436</v>
+      </c>
+      <c r="B92">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>437</v>
+      </c>
+      <c r="B93">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>438</v>
+      </c>
+      <c r="B94">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>439</v>
+      </c>
+      <c r="B95">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>440</v>
+      </c>
+      <c r="B96">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>441</v>
+      </c>
+      <c r="B97">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>442</v>
+      </c>
+      <c r="B98">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>443</v>
+      </c>
+      <c r="B99">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>444</v>
+      </c>
+      <c r="B100">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>445</v>
+      </c>
+      <c r="B101">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>446</v>
+      </c>
+      <c r="B102">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>447</v>
+      </c>
+      <c r="B103">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>448</v>
+      </c>
+      <c r="B104">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>449</v>
+      </c>
+      <c r="B105">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>450</v>
+      </c>
+      <c r="B106">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>451</v>
+      </c>
+      <c r="B107">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>452</v>
+      </c>
+      <c r="B108">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>453</v>
+      </c>
+      <c r="B109">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>454</v>
+      </c>
+      <c r="B110">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>455</v>
+      </c>
+      <c r="B111">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>456</v>
+      </c>
+      <c r="B112">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>457</v>
+      </c>
+      <c r="B113">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>458</v>
+      </c>
+      <c r="B114">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>459</v>
+      </c>
+      <c r="B115">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>460</v>
+      </c>
+      <c r="B116">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>461</v>
+      </c>
+      <c r="B117">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>462</v>
+      </c>
+      <c r="B118">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>463</v>
+      </c>
+      <c r="B119">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>464</v>
+      </c>
+      <c r="B120">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>498</v>
+      </c>
+      <c r="B121">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>465</v>
+      </c>
+      <c r="B123">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>466</v>
+      </c>
+      <c r="B124">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>467</v>
+      </c>
+      <c r="B125">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>468</v>
+      </c>
+      <c r="B126">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>469</v>
+      </c>
+      <c r="B127">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>470</v>
+      </c>
+      <c r="B128">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>471</v>
+      </c>
+      <c r="B129">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>472</v>
+      </c>
+      <c r="B130">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>473</v>
+      </c>
+      <c r="B131">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>474</v>
+      </c>
+      <c r="B132">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>475</v>
+      </c>
+      <c r="B133">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>476</v>
+      </c>
+      <c r="B134">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>477</v>
+      </c>
+      <c r="B135">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>478</v>
+      </c>
+      <c r="B136">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>479</v>
+      </c>
+      <c r="B137">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>480</v>
+      </c>
+      <c r="B138">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>481</v>
+      </c>
+      <c r="B139">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>482</v>
+      </c>
+      <c r="B140">
+        <v>755</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>